--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t xml:space="preserve">C</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">SPEEDUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORK-JOIN</t>
   </si>
   <si>
     <t xml:space="preserve">PI</t>
@@ -166,10 +169,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -196,10 +199,16 @@
       <c r="G1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="H1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1481.93</v>
@@ -210,7 +219,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1941.65</v>
@@ -228,10 +237,17 @@
         <f aca="false">D3/F3</f>
         <v>0.445945945945946</v>
       </c>
+      <c r="H3" s="0" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <f aca="false">D3/H3</f>
+        <v>0.394736842105263</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>235.29</v>
@@ -249,10 +265,17 @@
         <f aca="false">D4/F4</f>
         <v>1.01192842942346</v>
       </c>
+      <c r="H4" s="0" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <f aca="false">D4/H4</f>
+        <v>0.975095785440613</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>216.83</v>
@@ -270,10 +293,17 @@
         <f aca="false">D5/F5</f>
         <v>4.26851851851852</v>
       </c>
+      <c r="H5" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <f aca="false">D5/H5</f>
+        <v>4.00869565217391</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>251.71</v>
@@ -291,10 +321,17 @@
         <f aca="false">D6/F6</f>
         <v>2.40495867768595</v>
       </c>
+      <c r="H6" s="0" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <f aca="false">D6/H6</f>
+        <v>3.18904109589041</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>488.25</v>
@@ -312,10 +349,17 @@
         <f aca="false">D7/F7</f>
         <v>4.12658227848101</v>
       </c>
+      <c r="H7" s="0" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <f aca="false">D7/H7</f>
+        <v>3.74712643678161</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>1892.1</v>
@@ -327,6 +371,7 @@
         <f aca="false">D8/F8</f>
         <v>22.525</v>
       </c>
+      <c r="H8" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t xml:space="preserve">C</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">FORK-JOIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPENMP</t>
   </si>
   <si>
     <t xml:space="preserve">PI</t>
@@ -67,10 +70,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.00"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -92,6 +95,13 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -135,7 +145,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -148,7 +158,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -169,10 +187,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -205,10 +223,16 @@
       <c r="I1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="J1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1481.93</v>
@@ -216,10 +240,17 @@
       <c r="C2" s="0" t="n">
         <v>1316.62</v>
       </c>
+      <c r="J2" s="0" t="n">
+        <v>1458.92</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <f aca="false">B2/J2</f>
+        <v>1.01577194088778</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1941.65</v>
@@ -230,24 +261,31 @@
       <c r="D3" s="0" t="n">
         <v>16.5</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="1" t="n">
         <f aca="false">D3/F3</f>
         <v>0.445945945945946</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>41.8</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="1" t="n">
         <f aca="false">D3/H3</f>
         <v>0.394736842105263</v>
       </c>
+      <c r="J3" s="0" t="n">
+        <v>407.22</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <f aca="false">B3/J3</f>
+        <v>4.76806149010363</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>235.29</v>
@@ -255,27 +293,34 @@
       <c r="C4" s="0" t="n">
         <v>222.31</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4" t="n">
         <v>50.9</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="2" t="n">
         <v>50.3</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="1" t="n">
         <f aca="false">D4/F4</f>
         <v>1.01192842942346</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>52.2</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="1" t="n">
         <f aca="false">D4/H4</f>
         <v>0.975095785440613</v>
       </c>
+      <c r="J4" s="0" t="n">
+        <v>229.31</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <f aca="false">B4/J4</f>
+        <v>1.02607823470411</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>216.83</v>
@@ -283,27 +328,34 @@
       <c r="C5" s="0" t="n">
         <v>259.01</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4" t="n">
         <v>184.4</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="2" t="n">
         <v>43.2</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="3" t="n">
         <f aca="false">D5/F5</f>
         <v>4.26851851851852</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="H5" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="1" t="n">
         <f aca="false">D5/H5</f>
         <v>4.00869565217391</v>
       </c>
+      <c r="J5" s="0" t="n">
+        <v>65.32</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <f aca="false">B5/J5</f>
+        <v>3.31950398040416</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>251.71</v>
@@ -314,24 +366,31 @@
       <c r="D6" s="0" t="n">
         <v>116.4</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="2" t="n">
         <v>48.4</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="1" t="n">
         <f aca="false">D6/F6</f>
         <v>2.40495867768595</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>36.5</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="3" t="n">
         <f aca="false">D6/H6</f>
         <v>3.18904109589041</v>
       </c>
+      <c r="J6" s="0" t="n">
+        <v>97.43</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <f aca="false">B6/J6</f>
+        <v>2.58349584316945</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>488.25</v>
@@ -342,36 +401,49 @@
       <c r="D7" s="0" t="n">
         <v>130.4</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="2" t="n">
         <v>31.6</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="1" t="n">
         <f aca="false">D7/F7</f>
         <v>4.12658227848101</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>34.8</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="1" t="n">
         <f aca="false">D7/H7</f>
         <v>3.74712643678161</v>
       </c>
+      <c r="J7" s="0" t="n">
+        <v>94.05</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <f aca="false">B7/J7</f>
+        <v>5.19138755980861</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>1892.1</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="2" t="n">
         <v>84</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="1" t="n">
         <f aca="false">D8/F8</f>
         <v>22.525</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="2" t="n">
+        <v>92.2</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <f aca="false">D8/H8</f>
+        <v>20.5216919739696</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t xml:space="preserve">C</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t xml:space="preserve">OPENMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TBB</t>
   </si>
   <si>
     <t xml:space="preserve">PI</t>
@@ -73,12 +76,11 @@
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
+  <fonts count="17">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -97,21 +99,139 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -119,8 +239,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -144,6 +279,57 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -158,7 +344,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -171,14 +357,91 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -187,10 +450,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <pane xSplit="4" ySplit="0" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="M4" activeCellId="0" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -229,10 +494,16 @@
       <c r="K1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="L1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1481.93</v>
@@ -250,7 +521,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1941.65</v>
@@ -285,7 +556,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>235.29</v>
@@ -313,14 +584,21 @@
       <c r="J4" s="0" t="n">
         <v>229.31</v>
       </c>
-      <c r="K4" s="3" t="n">
+      <c r="K4" s="5" t="n">
         <f aca="false">B4/J4</f>
         <v>1.02607823470411</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>73.996</v>
+      </c>
+      <c r="M4" s="3" t="n">
+        <f aca="false">C4/L4</f>
+        <v>3.00435158657225</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>216.83</v>
@@ -355,7 +633,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>251.71</v>
@@ -390,7 +668,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>488.25</v>
@@ -425,7 +703,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>1892.1</v>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -76,11 +76,12 @@
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -99,139 +100,21 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -239,23 +122,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -279,57 +147,6 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -344,7 +161,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -357,91 +174,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -455,7 +195,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="0" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="M4" activeCellId="0" sqref="M4"/>
+      <selection pane="topRight" activeCell="M7" activeCellId="0" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -553,6 +293,13 @@
         <f aca="false">B3/J3</f>
         <v>4.76806149010363</v>
       </c>
+      <c r="L3" s="0" t="n">
+        <v>592.965</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <f aca="false">C3/L3</f>
+        <v>3.11498992351994</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -630,6 +377,13 @@
         <f aca="false">B5/J5</f>
         <v>3.31950398040416</v>
       </c>
+      <c r="L5" s="0" t="n">
+        <v>9696.61</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <f aca="false">C5/L5</f>
+        <v>0.0267113970758853</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -654,7 +408,7 @@
       <c r="H6" s="0" t="n">
         <v>36.5</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="I6" s="5" t="n">
         <f aca="false">D6/H6</f>
         <v>3.18904109589041</v>
       </c>
@@ -665,6 +419,13 @@
         <f aca="false">B6/J6</f>
         <v>2.58349584316945</v>
       </c>
+      <c r="L6" s="0" t="n">
+        <v>154.782</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <f aca="false">C6/L6</f>
+        <v>6.75659960460519</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -699,6 +460,13 @@
       <c r="K7" s="3" t="n">
         <f aca="false">B7/J7</f>
         <v>5.19138755980861</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>504.028</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <f aca="false">C7/L7</f>
+        <v>0.998198512781036</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t xml:space="preserve">C</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">TBB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUDA</t>
   </si>
   <si>
     <t xml:space="preserve">PI</t>
@@ -190,12 +193,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="0" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" ySplit="0" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="M7" activeCellId="0" sqref="M7"/>
+      <selection pane="topRight" activeCell="O6" activeCellId="0" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -240,10 +243,16 @@
       <c r="M1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="N1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1481.93</v>
@@ -261,7 +270,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1941.65</v>
@@ -303,7 +312,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>235.29</v>
@@ -345,7 +354,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>216.83</v>
@@ -384,10 +393,17 @@
         <f aca="false">C5/L5</f>
         <v>0.0267113970758853</v>
       </c>
+      <c r="N5" s="0" t="n">
+        <v>0.0046</v>
+      </c>
+      <c r="O5" s="1" t="n">
+        <f aca="false">B5/N5</f>
+        <v>47136.9565217391</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>251.71</v>
@@ -426,10 +442,17 @@
         <f aca="false">C6/L6</f>
         <v>6.75659960460519</v>
       </c>
+      <c r="N6" s="0" t="n">
+        <v>0.0048</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <f aca="false">B6/N6</f>
+        <v>52439.5833333333</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>488.25</v>
@@ -471,7 +494,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>1892.1</v>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -79,12 +79,11 @@
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
+  <fonts count="17">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -103,21 +102,139 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -125,8 +242,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -150,6 +282,57 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -164,7 +347,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -177,14 +360,91 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -198,7 +458,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="0" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="O6" activeCellId="0" sqref="O6"/>
+      <selection pane="topRight" activeCell="O3" activeCellId="0" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -309,6 +569,13 @@
         <f aca="false">C3/L3</f>
         <v>3.11498992351994</v>
       </c>
+      <c r="N3" s="0" t="n">
+        <v>0.0035</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <f aca="false">B3/N3</f>
+        <v>554757.142857143</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
